--- a/HW/BTPrinter_V1.20 PCBA BOM.xlsx
+++ b/HW/BTPrinter_V1.20 PCBA BOM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184">
   <si>
     <t xml:space="preserve"> Part Report (BaseOption) for BTPrinter_V1.20.pcb on 2016/1/4 15:13:09</t>
   </si>
@@ -288,286 +288,274 @@
     <t>4.7uF</t>
   </si>
   <si>
-    <t>C1</t>
+    <t>C0603</t>
+  </si>
+  <si>
+    <t>C9 C26 C1</t>
   </si>
   <si>
     <t>33</t>
   </si>
   <si>
-    <t>C0603</t>
-  </si>
-  <si>
-    <t>C9 C26</t>
+    <t>10uF/10V</t>
+  </si>
+  <si>
+    <t>C0805</t>
+  </si>
+  <si>
+    <t>C13 C20 C32 C31</t>
   </si>
   <si>
     <t>34</t>
   </si>
   <si>
-    <t>10uF</t>
-  </si>
-  <si>
-    <t>C31</t>
+    <t>10uF/16V</t>
+  </si>
+  <si>
+    <t>C14</t>
   </si>
   <si>
     <t>35</t>
   </si>
   <si>
-    <t>C0805</t>
-  </si>
-  <si>
-    <t>C13 C20 C32</t>
+    <t>22uF/10V</t>
+  </si>
+  <si>
+    <t>C40</t>
   </si>
   <si>
     <t>36</t>
   </si>
   <si>
-    <t>10uF/16V</t>
-  </si>
-  <si>
-    <t>C14</t>
+    <t>电解电容25V/100uF 直径6.3MM</t>
+  </si>
+  <si>
+    <t>C_DIANJIE_6.3MM</t>
+  </si>
+  <si>
+    <t>C39</t>
   </si>
   <si>
     <t>37</t>
   </si>
   <si>
-    <t>22uF/10V</t>
-  </si>
-  <si>
-    <t>C40</t>
+    <t>电解电容25V/470uF 直径8MM</t>
+  </si>
+  <si>
+    <t>C_DIANJIE_8MM</t>
+  </si>
+  <si>
+    <t>C11</t>
   </si>
   <si>
     <t>38</t>
   </si>
   <si>
-    <t>电解电容25V/100uF 直径6.3MM</t>
-  </si>
-  <si>
-    <t>C_DIANJIE_6.3MM</t>
-  </si>
-  <si>
-    <t>C39</t>
+    <t>电解电容35V/1000uF 直径10MM</t>
+  </si>
+  <si>
+    <t>C_DIANJIE_10MM</t>
+  </si>
+  <si>
+    <t>C41</t>
+  </si>
+  <si>
+    <t>Inductors</t>
   </si>
   <si>
     <t>39</t>
   </si>
   <si>
-    <t>电解电容25V/470uF 直径8MM</t>
-  </si>
-  <si>
-    <t>C_DIANJIE_8MM</t>
-  </si>
-  <si>
-    <t>C11</t>
+    <t>6.8uH</t>
+  </si>
+  <si>
+    <t>L_DIP</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>Diodes</t>
   </si>
   <si>
     <t>40</t>
   </si>
   <si>
-    <t>电解电容35V/1000uF 直径10MM</t>
-  </si>
-  <si>
-    <t>C_DIANJIE_10MM</t>
-  </si>
-  <si>
-    <t>C41</t>
-  </si>
-  <si>
-    <t>Inductors</t>
+    <t>1N4001(SOD323)</t>
+  </si>
+  <si>
+    <t>SOD323</t>
+  </si>
+  <si>
+    <t>D3</t>
   </si>
   <si>
     <t>41</t>
   </si>
   <si>
-    <t>6.8uH</t>
-  </si>
-  <si>
-    <t>L_DIP</t>
-  </si>
-  <si>
-    <t>L1</t>
-  </si>
-  <si>
-    <t>Diodes</t>
+    <t>1N5822  DO-2144AA</t>
+  </si>
+  <si>
+    <t>DO-214AA</t>
+  </si>
+  <si>
+    <t>D2</t>
   </si>
   <si>
     <t>42</t>
   </si>
   <si>
-    <t>1N4001(SOD323)</t>
-  </si>
-  <si>
-    <t>SOD323</t>
-  </si>
-  <si>
-    <t>D3</t>
+    <t>BAT54S SOT23 肖特基二极管</t>
+  </si>
+  <si>
+    <t>SOT-23-3</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>Triodes</t>
   </si>
   <si>
     <t>43</t>
   </si>
   <si>
-    <t>1N5822  DO-2144AA</t>
-  </si>
-  <si>
-    <t>DO-214AA</t>
-  </si>
-  <si>
-    <t>D2</t>
+    <t>2N7002</t>
+  </si>
+  <si>
+    <t>SOT23</t>
+  </si>
+  <si>
+    <t>Q7</t>
   </si>
   <si>
     <t>44</t>
   </si>
   <si>
-    <t>BAT54S SOT23 肖特基二极管</t>
-  </si>
-  <si>
-    <t>SOT-23-3</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>Triodes</t>
+    <t>3904</t>
+  </si>
+  <si>
+    <t>Q2 Q9</t>
   </si>
   <si>
     <t>45</t>
   </si>
   <si>
-    <t>2N7002</t>
-  </si>
-  <si>
-    <t>SOT23</t>
-  </si>
-  <si>
-    <t>Q7</t>
+    <t>IR6402</t>
+  </si>
+  <si>
+    <t>Q1</t>
   </si>
   <si>
     <t>46</t>
   </si>
   <si>
-    <t>3904</t>
-  </si>
-  <si>
-    <t>Q2 Q9</t>
+    <t>TIP127(TO252)</t>
+  </si>
+  <si>
+    <t>TO252</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Crystals</t>
   </si>
   <si>
     <t>47</t>
   </si>
   <si>
-    <t>IR6402</t>
-  </si>
-  <si>
-    <t>Q1</t>
+    <t>12MHZ 贴片晶振</t>
+  </si>
+  <si>
+    <t>HSX321S-1</t>
+  </si>
+  <si>
+    <t>Y1</t>
+  </si>
+  <si>
+    <t>Connectors</t>
   </si>
   <si>
     <t>48</t>
   </si>
   <si>
-    <t>TIP127(TO252)</t>
-  </si>
-  <si>
-    <t>TO252</t>
-  </si>
-  <si>
-    <t>Q3</t>
-  </si>
-  <si>
-    <t>Crystals</t>
+    <t>2.0Pitch 双列直插打印头FPC座子</t>
+  </si>
+  <si>
+    <t>30PIN_DOUBLE_SMD</t>
+  </si>
+  <si>
+    <t>J8</t>
   </si>
   <si>
     <t>49</t>
   </si>
   <si>
-    <t>12MHZ 贴片晶振</t>
-  </si>
-  <si>
-    <t>HSX321S-1</t>
-  </si>
-  <si>
-    <t>Y1</t>
-  </si>
-  <si>
-    <t>Connectors</t>
+    <t>2PIN电源插座</t>
+  </si>
+  <si>
+    <t>SIP-2P</t>
+  </si>
+  <si>
+    <t>J2</t>
   </si>
   <si>
     <t>50</t>
   </si>
   <si>
-    <t>2.0Pitch 双列直插打印头FPC座子</t>
-  </si>
-  <si>
-    <t>30PIN_DOUBLE_SMD</t>
-  </si>
-  <si>
-    <t>J8</t>
+    <t>USB TYPEB 母座</t>
+  </si>
+  <si>
+    <t>STANDARD_TYPEB</t>
+  </si>
+  <si>
+    <t>J3</t>
   </si>
   <si>
     <t>51</t>
   </si>
   <si>
-    <t>2PIN电源插座</t>
-  </si>
-  <si>
-    <t>SIP-2P</t>
-  </si>
-  <si>
-    <t>J2</t>
+    <t>RJ12水晶头母座</t>
+  </si>
+  <si>
+    <t>RJ12</t>
+  </si>
+  <si>
+    <t>J5</t>
+  </si>
+  <si>
+    <t>Switchs</t>
   </si>
   <si>
     <t>52</t>
   </si>
   <si>
-    <t>USB TYPEB 母座</t>
-  </si>
-  <si>
-    <t>STANDARD_TYPEB</t>
-  </si>
-  <si>
-    <t>J3</t>
+    <t>电源开关</t>
+  </si>
+  <si>
+    <t>POWER_KEY</t>
+  </si>
+  <si>
+    <t>S1</t>
   </si>
   <si>
     <t>53</t>
   </si>
   <si>
-    <t>RJ12水晶头母座</t>
-  </si>
-  <si>
-    <t>RJ12</t>
-  </si>
-  <si>
-    <t>J5</t>
-  </si>
-  <si>
-    <t>Switchs</t>
+    <t>轻触开关</t>
+  </si>
+  <si>
+    <t>12_12MMKEY</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>Unkowns</t>
   </si>
   <si>
     <t>54</t>
-  </si>
-  <si>
-    <t>电源开关</t>
-  </si>
-  <si>
-    <t>POWER_KEY</t>
-  </si>
-  <si>
-    <t>S1</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>轻触开关</t>
-  </si>
-  <si>
-    <t>12_12MMKEY</t>
-  </si>
-  <si>
-    <t>S2</t>
-  </si>
-  <si>
-    <t>Unkowns</t>
-  </si>
-  <si>
-    <t>56</t>
   </si>
   <si>
     <t>蓝牙模块FSC-BT816</t>
@@ -588,11 +576,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -624,6 +612,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -644,14 +647,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -692,6 +687,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -707,13 +718,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -737,6 +741,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -745,19 +756,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -831,6 +834,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -873,18 +900,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -898,48 +943,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1002,6 +1005,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1012,15 +1030,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1046,21 +1055,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1074,6 +1068,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1082,10 +1085,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1094,137 +1097,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1234,31 +1237,28 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1575,10 +1575,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1591,1159 +1591,1123 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="14.25" spans="1:6">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" s="2" customFormat="1" ht="14.25" spans="1:6">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6">
         <v>7</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
     </row>
     <row r="4" ht="14.25" spans="1:6">
-      <c r="A4" s="9">
-        <v>1</v>
-      </c>
-      <c r="B4" s="10" t="s">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="11">
-        <v>1</v>
-      </c>
-      <c r="E4" s="11" t="s">
+      <c r="D4" s="8">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="11"/>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" ht="14.25" spans="1:6">
-      <c r="A5" s="9">
+      <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="11">
-        <v>1</v>
-      </c>
-      <c r="E5" s="11" t="s">
+      <c r="D5" s="8">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="11"/>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" ht="14.25" spans="1:6">
-      <c r="A6" s="9">
+      <c r="A6" s="3">
         <v>3</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="11">
-        <v>1</v>
-      </c>
-      <c r="E6" s="11" t="s">
+      <c r="D6" s="8">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="11"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" ht="14.25" spans="1:6">
-      <c r="A7" s="9">
+      <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="11">
-        <v>1</v>
-      </c>
-      <c r="E7" s="11" t="s">
+      <c r="D7" s="8">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="11"/>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" ht="14.25" spans="1:6">
-      <c r="A8" s="9">
+      <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="11">
-        <v>1</v>
-      </c>
-      <c r="E8" s="11" t="s">
+      <c r="D8" s="8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="11"/>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" ht="14.25" spans="1:6">
-      <c r="A9" s="9">
+      <c r="A9" s="3">
         <v>6</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="11">
-        <v>1</v>
-      </c>
-      <c r="E9" s="11" t="s">
+      <c r="D9" s="8">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="11"/>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" ht="14.25" spans="1:6">
-      <c r="A10" s="9">
+      <c r="A10" s="3">
         <v>7</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="11">
-        <v>1</v>
-      </c>
-      <c r="E10" s="11" t="s">
+      <c r="D10" s="8">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="11"/>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" s="2" customFormat="1" ht="14.25" spans="1:6">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="8">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6">
         <v>40</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
     </row>
     <row r="12" ht="14.25" spans="1:6">
-      <c r="A12" s="9">
+      <c r="A12" s="3">
         <v>8</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="8">
         <v>2</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="11"/>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" ht="14.25" spans="1:6">
-      <c r="A13" s="9">
+      <c r="A13" s="3">
         <v>9</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="8">
         <v>4</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="11"/>
+      <c r="F13" s="8"/>
     </row>
     <row r="14" ht="14.25" spans="1:6">
-      <c r="A14" s="9">
+      <c r="A14" s="3">
         <v>10</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="11">
-        <v>1</v>
-      </c>
-      <c r="E14" s="11" t="s">
+      <c r="D14" s="8">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="11"/>
+      <c r="F14" s="8"/>
     </row>
     <row r="15" ht="14.25" spans="1:6">
-      <c r="A15" s="9">
+      <c r="A15" s="3">
         <v>11</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="11">
-        <v>1</v>
-      </c>
-      <c r="E15" s="11" t="s">
+      <c r="D15" s="8">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="11"/>
+      <c r="F15" s="8"/>
     </row>
     <row r="16" ht="14.25" spans="1:6">
-      <c r="A16" s="9">
+      <c r="A16" s="3">
         <v>12</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="8">
         <v>2</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="11"/>
+      <c r="F16" s="8"/>
     </row>
     <row r="17" ht="14.25" spans="1:6">
-      <c r="A17" s="9">
+      <c r="A17" s="3">
         <v>13</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="8">
         <v>3</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="11"/>
+      <c r="F17" s="8"/>
     </row>
     <row r="18" ht="14.25" spans="1:6">
-      <c r="A18" s="9">
+      <c r="A18" s="3">
         <v>14</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="11">
-        <v>1</v>
-      </c>
-      <c r="E18" s="11" t="s">
+      <c r="D18" s="8">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="11"/>
+      <c r="F18" s="8"/>
     </row>
     <row r="19" ht="14.25" spans="1:6">
-      <c r="A19" s="9">
+      <c r="A19" s="3">
         <v>15</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="11">
-        <v>1</v>
-      </c>
-      <c r="E19" s="11" t="s">
+      <c r="D19" s="8">
+        <v>1</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="11"/>
+      <c r="F19" s="8"/>
     </row>
     <row r="20" ht="14.25" spans="1:6">
-      <c r="A20" s="9">
+      <c r="A20" s="3">
         <v>16</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="8">
         <v>14</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F20" s="11"/>
+      <c r="F20" s="8"/>
     </row>
     <row r="21" ht="14.25" spans="1:6">
-      <c r="A21" s="9">
+      <c r="A21" s="3">
         <v>17</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="11">
-        <v>1</v>
-      </c>
-      <c r="E21" s="11" t="s">
+      <c r="D21" s="8">
+        <v>1</v>
+      </c>
+      <c r="E21" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="11"/>
+      <c r="F21" s="8"/>
     </row>
     <row r="22" ht="14.25" spans="1:6">
-      <c r="A22" s="9">
+      <c r="A22" s="3">
         <v>18</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="11">
-        <v>1</v>
-      </c>
-      <c r="E22" s="11" t="s">
+      <c r="D22" s="8">
+        <v>1</v>
+      </c>
+      <c r="E22" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="11"/>
+      <c r="F22" s="8"/>
     </row>
     <row r="23" ht="14.25" spans="1:6">
-      <c r="A23" s="9">
+      <c r="A23" s="3">
         <v>19</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="8">
         <v>3</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="F23" s="11"/>
+      <c r="F23" s="8"/>
     </row>
     <row r="24" ht="14.25" spans="1:6">
-      <c r="A24" s="9">
+      <c r="A24" s="3">
         <v>20</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="11">
-        <v>1</v>
-      </c>
-      <c r="E24" s="11" t="s">
+      <c r="D24" s="8">
+        <v>1</v>
+      </c>
+      <c r="E24" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F24" s="11"/>
+      <c r="F24" s="8"/>
     </row>
     <row r="25" ht="14.25" spans="1:6">
-      <c r="A25" s="9">
+      <c r="A25" s="3">
         <v>21</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="11">
-        <v>1</v>
-      </c>
-      <c r="E25" s="11" t="s">
+      <c r="D25" s="8">
+        <v>1</v>
+      </c>
+      <c r="E25" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="F25" s="11"/>
+      <c r="F25" s="8"/>
     </row>
     <row r="26" ht="14.25" spans="1:6">
-      <c r="A26" s="9">
+      <c r="A26" s="3">
         <v>22</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="11">
-        <v>1</v>
-      </c>
-      <c r="E26" s="11" t="s">
+      <c r="D26" s="8">
+        <v>1</v>
+      </c>
+      <c r="E26" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F26" s="11"/>
+      <c r="F26" s="8"/>
     </row>
     <row r="27" ht="14.25" spans="1:6">
-      <c r="A27" s="9">
+      <c r="A27" s="3">
         <v>23</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27" s="8">
         <v>2</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E27" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="F27" s="11"/>
+      <c r="F27" s="8"/>
     </row>
     <row r="28" ht="14.25" spans="1:6">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="11">
-        <v>1</v>
-      </c>
-      <c r="E28" s="11" t="s">
+      <c r="D28" s="8">
+        <v>1</v>
+      </c>
+      <c r="E28" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="F28" s="11"/>
+      <c r="F28" s="8"/>
     </row>
     <row r="29" s="2" customFormat="1" ht="14.25" spans="1:6">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="8">
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="6">
         <v>36</v>
       </c>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
     </row>
     <row r="30" ht="14.25" spans="1:6">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D30" s="8">
         <v>2</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="E30" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="F30" s="11"/>
+      <c r="F30" s="8"/>
     </row>
     <row r="31" ht="14.25" spans="1:6">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D31" s="11">
-        <v>1</v>
-      </c>
-      <c r="E31" s="11" t="s">
+      <c r="D31" s="8">
+        <v>1</v>
+      </c>
+      <c r="E31" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F31" s="11"/>
+      <c r="F31" s="8"/>
     </row>
     <row r="32" ht="14.25" spans="1:6">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D32" s="11">
-        <v>1</v>
-      </c>
-      <c r="E32" s="11" t="s">
+      <c r="D32" s="8">
+        <v>1</v>
+      </c>
+      <c r="E32" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F32" s="11"/>
+      <c r="F32" s="8"/>
     </row>
     <row r="33" ht="14.25" spans="1:6">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D33" s="8">
         <v>3</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E33" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="F33" s="11"/>
+      <c r="F33" s="8"/>
     </row>
     <row r="34" ht="14.25" spans="1:6">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D34" s="8">
         <v>14</v>
       </c>
-      <c r="E34" s="11" t="s">
+      <c r="E34" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="F34" s="11"/>
+      <c r="F34" s="8"/>
     </row>
     <row r="35" ht="14.25" spans="1:6">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D35" s="8">
         <v>2</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="E35" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="F35" s="11"/>
+      <c r="F35" s="8"/>
     </row>
     <row r="36" ht="14.25" spans="1:6">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D36" s="11">
-        <v>1</v>
-      </c>
-      <c r="E36" s="11" t="s">
+      <c r="D36" s="8">
+        <v>1</v>
+      </c>
+      <c r="E36" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="F36" s="11"/>
+      <c r="F36" s="8"/>
     </row>
     <row r="37" ht="14.25" spans="1:6">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C37" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D37" s="11">
-        <v>1</v>
-      </c>
-      <c r="E37" s="11" t="s">
+      <c r="C37" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F37" s="11"/>
+      <c r="D37" s="8">
+        <v>2</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F37" s="8"/>
     </row>
     <row r="38" ht="14.25" spans="1:6">
-      <c r="A38" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C38" s="10" t="s">
+      <c r="A38" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D38" s="11">
+      <c r="B38" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D38" s="8">
+        <v>4</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F38" s="8"/>
+    </row>
+    <row r="39" ht="14.25" spans="1:6">
+      <c r="A39" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D39" s="8">
+        <v>1</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F39" s="8"/>
+    </row>
+    <row r="40" ht="14.25" spans="1:6">
+      <c r="A40" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D40" s="8">
+        <v>1</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F40" s="8"/>
+    </row>
+    <row r="41" ht="14.25" spans="1:6">
+      <c r="A41" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D41" s="8">
+        <v>1</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F41" s="8"/>
+    </row>
+    <row r="42" ht="14.25" spans="1:6">
+      <c r="A42" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D42" s="8">
+        <v>1</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="F42" s="8"/>
+    </row>
+    <row r="43" ht="14.25" spans="1:6">
+      <c r="A43" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D43" s="8">
+        <v>1</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F43" s="8"/>
+    </row>
+    <row r="44" s="2" customFormat="1" ht="14.25" spans="1:6">
+      <c r="A44" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="6">
+        <v>1</v>
+      </c>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+    </row>
+    <row r="45" ht="14.25" spans="1:6">
+      <c r="A45" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D45" s="8">
+        <v>1</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="F45" s="8"/>
+    </row>
+    <row r="46" s="2" customFormat="1" ht="14.25" spans="1:6">
+      <c r="A46" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="6">
+        <v>5</v>
+      </c>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+    </row>
+    <row r="47" ht="14.25" spans="1:6">
+      <c r="A47" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D47" s="8">
+        <v>1</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F47" s="8"/>
+    </row>
+    <row r="48" ht="14.25" spans="1:6">
+      <c r="A48" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D48" s="8">
+        <v>1</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F48" s="8"/>
+    </row>
+    <row r="49" ht="19" customHeight="1" spans="1:6">
+      <c r="A49" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D49" s="8">
+        <v>1</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F49" s="8"/>
+    </row>
+    <row r="50" s="2" customFormat="1" ht="14.25" spans="1:6">
+      <c r="A50" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="6">
+        <v>5</v>
+      </c>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+    </row>
+    <row r="51" ht="14.25" spans="1:6">
+      <c r="A51" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D51" s="8">
+        <v>1</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="F51" s="8"/>
+    </row>
+    <row r="52" ht="14.25" spans="1:6">
+      <c r="A52" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D52" s="8">
         <v>2</v>
       </c>
-      <c r="E38" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="F38" s="11"/>
-    </row>
-    <row r="39" ht="14.25" spans="1:6">
-      <c r="A39" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D39" s="11">
-        <v>1</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="F39" s="11"/>
-    </row>
-    <row r="40" ht="14.25" spans="1:6">
-      <c r="A40" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="D40" s="11">
-        <v>3</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F40" s="11"/>
-    </row>
-    <row r="41" ht="14.25" spans="1:6">
-      <c r="A41" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="D41" s="11">
-        <v>1</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="F41" s="11"/>
-    </row>
-    <row r="42" ht="14.25" spans="1:6">
-      <c r="A42" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="D42" s="11">
-        <v>1</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="F42" s="11"/>
-    </row>
-    <row r="43" ht="14.25" spans="1:6">
-      <c r="A43" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="D43" s="11">
-        <v>1</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="F43" s="11"/>
-    </row>
-    <row r="44" ht="14.25" spans="1:6">
-      <c r="A44" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D44" s="11">
-        <v>1</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="F44" s="11"/>
-    </row>
-    <row r="45" ht="14.25" spans="1:6">
-      <c r="A45" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D45" s="11">
-        <v>1</v>
-      </c>
-      <c r="E45" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="F45" s="11"/>
-    </row>
-    <row r="46" s="2" customFormat="1" ht="14.25" spans="1:6">
-      <c r="A46" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="8">
-        <v>1</v>
-      </c>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-    </row>
-    <row r="47" ht="14.25" spans="1:6">
-      <c r="A47" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="D47" s="11">
-        <v>1</v>
-      </c>
-      <c r="E47" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="F47" s="11"/>
-    </row>
-    <row r="48" s="2" customFormat="1" ht="14.25" spans="1:6">
-      <c r="A48" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="8">
+      <c r="E52" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="F52" s="8"/>
+    </row>
+    <row r="53" ht="14.25" spans="1:6">
+      <c r="A53" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D53" s="8">
+        <v>1</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="F53" s="8"/>
+    </row>
+    <row r="54" ht="14.25" spans="1:6">
+      <c r="A54" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D54" s="8">
+        <v>1</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F54" s="8"/>
+    </row>
+    <row r="55" s="2" customFormat="1" ht="14.25" spans="1:6">
+      <c r="A55" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="6">
+        <v>1</v>
+      </c>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+    </row>
+    <row r="56" ht="14.25" spans="1:6">
+      <c r="A56" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D56" s="8">
+        <v>1</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="F56" s="8"/>
+    </row>
+    <row r="57" s="2" customFormat="1" ht="14.25" spans="1:6">
+      <c r="A57" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="6">
         <v>5</v>
       </c>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-    </row>
-    <row r="49" ht="14.25" spans="1:6">
-      <c r="A49" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="D49" s="11">
-        <v>1</v>
-      </c>
-      <c r="E49" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="F49" s="11"/>
-    </row>
-    <row r="50" ht="14.25" spans="1:6">
-      <c r="A50" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="D50" s="11">
-        <v>1</v>
-      </c>
-      <c r="E50" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="F50" s="11"/>
-    </row>
-    <row r="51" ht="19" customHeight="1" spans="1:6">
-      <c r="A51" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="D51" s="11">
-        <v>1</v>
-      </c>
-      <c r="E51" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="F51" s="11"/>
-    </row>
-    <row r="52" s="2" customFormat="1" ht="14.25" spans="1:6">
-      <c r="A52" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="8">
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+    </row>
+    <row r="58" ht="14.25" spans="1:6">
+      <c r="A58" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D58" s="8">
+        <v>1</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F58" s="8"/>
+    </row>
+    <row r="59" ht="14.25" spans="1:6">
+      <c r="A59" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="D59" s="8">
+        <v>1</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="F59" s="8"/>
+    </row>
+    <row r="60" ht="14.25" spans="1:6">
+      <c r="A60" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D60" s="8">
+        <v>1</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="F60" s="8"/>
+    </row>
+    <row r="61" ht="14.25" spans="1:6">
+      <c r="A61" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D61" s="8">
+        <v>1</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="F61" s="8"/>
+    </row>
+    <row r="62" s="2" customFormat="1" ht="14.25" spans="1:6">
+      <c r="A62" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="6">
+        <v>2</v>
+      </c>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+    </row>
+    <row r="63" ht="14.25" spans="1:6">
+      <c r="A63" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="D63" s="8">
+        <v>1</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="F63" s="8"/>
+    </row>
+    <row r="64" ht="14.25" spans="1:6">
+      <c r="A64" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D64" s="8">
+        <v>1</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="F64" s="8"/>
+    </row>
+    <row r="65" s="2" customFormat="1" ht="14.25" spans="1:6">
+      <c r="A65" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="6">
         <v>5</v>
       </c>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-    </row>
-    <row r="53" ht="14.25" spans="1:6">
-      <c r="A53" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D53" s="11">
-        <v>1</v>
-      </c>
-      <c r="E53" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="F53" s="11"/>
-    </row>
-    <row r="54" ht="14.25" spans="1:6">
-      <c r="A54" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D54" s="11">
-        <v>2</v>
-      </c>
-      <c r="E54" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="F54" s="11"/>
-    </row>
-    <row r="55" ht="14.25" spans="1:6">
-      <c r="A55" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D55" s="11">
-        <v>1</v>
-      </c>
-      <c r="E55" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="F55" s="11"/>
-    </row>
-    <row r="56" ht="14.25" spans="1:6">
-      <c r="A56" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="D56" s="11">
-        <v>1</v>
-      </c>
-      <c r="E56" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="F56" s="11"/>
-    </row>
-    <row r="57" s="2" customFormat="1" ht="14.25" spans="1:6">
-      <c r="A57" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="8">
-        <v>1</v>
-      </c>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-    </row>
-    <row r="58" ht="14.25" spans="1:6">
-      <c r="A58" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="B58" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="D58" s="11">
-        <v>1</v>
-      </c>
-      <c r="E58" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="F58" s="11"/>
-    </row>
-    <row r="59" s="2" customFormat="1" ht="14.25" spans="1:6">
-      <c r="A59" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="8">
-        <v>5</v>
-      </c>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-    </row>
-    <row r="60" ht="14.25" spans="1:6">
-      <c r="A60" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="D60" s="11">
-        <v>1</v>
-      </c>
-      <c r="E60" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="F60" s="11"/>
-    </row>
-    <row r="61" ht="14.25" spans="1:6">
-      <c r="A61" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="B61" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="D61" s="11">
-        <v>1</v>
-      </c>
-      <c r="E61" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="F61" s="11"/>
-    </row>
-    <row r="62" ht="14.25" spans="1:6">
-      <c r="A62" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="B62" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="D62" s="11">
-        <v>1</v>
-      </c>
-      <c r="E62" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="F62" s="11"/>
-    </row>
-    <row r="63" ht="14.25" spans="1:6">
-      <c r="A63" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="B63" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="D63" s="11">
-        <v>1</v>
-      </c>
-      <c r="E63" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="F63" s="11"/>
-    </row>
-    <row r="64" s="2" customFormat="1" ht="14.25" spans="1:6">
-      <c r="A64" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="B64" s="7"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="8">
-        <v>2</v>
-      </c>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-    </row>
-    <row r="65" ht="14.25" spans="1:6">
-      <c r="A65" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="B65" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="D65" s="11">
-        <v>1</v>
-      </c>
-      <c r="E65" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="F65" s="11"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
     </row>
     <row r="66" ht="14.25" spans="1:6">
-      <c r="A66" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="B66" s="10" t="s">
+      <c r="A66" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C66" s="10" t="s">
+      <c r="B66" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="D66" s="11">
-        <v>1</v>
-      </c>
-      <c r="E66" s="11" t="s">
+      <c r="C66" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="F66" s="11"/>
-    </row>
-    <row r="67" s="2" customFormat="1" ht="14.25" spans="1:6">
-      <c r="A67" s="7" t="s">
+      <c r="D66" s="8">
+        <v>1</v>
+      </c>
+      <c r="E66" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="B67" s="7"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="8">
-        <v>5</v>
-      </c>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-    </row>
-    <row r="68" ht="14.25" spans="1:6">
-      <c r="A68" s="9" t="s">
+      <c r="F66" s="8"/>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="B68" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="C68" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="D68" s="11">
-        <v>1</v>
-      </c>
-      <c r="E68" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="F68" s="11"/>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" s="3" t="s">
-        <v>187</v>
       </c>
     </row>
   </sheetData>
